--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H2">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I2">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J2">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N2">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q2">
-        <v>6.44185260132</v>
+        <v>4.425943324607222</v>
       </c>
       <c r="R2">
-        <v>57.97667341187999</v>
+        <v>39.833489921465</v>
       </c>
       <c r="S2">
-        <v>0.06201426826456375</v>
+        <v>0.04173062329936175</v>
       </c>
       <c r="T2">
-        <v>0.06201426826456374</v>
+        <v>0.04173062329936176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H3">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I3">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J3">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q3">
-        <v>0.6860216112111112</v>
+        <v>0.4996497490944445</v>
       </c>
       <c r="R3">
-        <v>6.1741945009</v>
+        <v>4.49684774185</v>
       </c>
       <c r="S3">
-        <v>0.006604175982576284</v>
+        <v>0.004711017275154841</v>
       </c>
       <c r="T3">
-        <v>0.006604175982576282</v>
+        <v>0.004711017275154841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H4">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I4">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J4">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N4">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q4">
-        <v>0.3771043034177778</v>
+        <v>0.4977986340583332</v>
       </c>
       <c r="R4">
-        <v>3.39393873076</v>
+        <v>4.480187706524999</v>
       </c>
       <c r="S4">
-        <v>0.003630298437918235</v>
+        <v>0.004693563779122422</v>
       </c>
       <c r="T4">
-        <v>0.003630298437918234</v>
+        <v>0.004693563779122423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>30.779518</v>
       </c>
       <c r="I5">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J5">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N5">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q5">
-        <v>65.74763592751201</v>
+        <v>62.02222328659623</v>
       </c>
       <c r="R5">
-        <v>591.728723347608</v>
+        <v>558.2000095793661</v>
       </c>
       <c r="S5">
-        <v>0.6329377252956893</v>
+        <v>0.5847851737666659</v>
       </c>
       <c r="T5">
-        <v>0.6329377252956891</v>
+        <v>0.5847851737666659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J6">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>2.04733</v>
       </c>
       <c r="O6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q6">
         <v>7.001758954104446</v>
@@ -821,10 +821,10 @@
         <v>63.01583058694001</v>
       </c>
       <c r="S6">
-        <v>0.06740436097756577</v>
+        <v>0.06601705984850037</v>
       </c>
       <c r="T6">
-        <v>0.06740436097756576</v>
+        <v>0.06601705984850037</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J7">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N7">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q7">
-        <v>3.848848767935112</v>
+        <v>6.975818660323333</v>
       </c>
       <c r="R7">
-        <v>34.639638911416</v>
+        <v>62.78236794291</v>
       </c>
       <c r="S7">
-        <v>0.03705200270424614</v>
+        <v>0.06577247817434384</v>
       </c>
       <c r="T7">
-        <v>0.03705200270424613</v>
+        <v>0.06577247817434384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H8">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I8">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J8">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N8">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q8">
-        <v>14.512684997124</v>
+        <v>15.52393608704856</v>
       </c>
       <c r="R8">
-        <v>130.614164974116</v>
+        <v>139.715424783437</v>
       </c>
       <c r="S8">
-        <v>0.1397103591700219</v>
+        <v>0.146369594334894</v>
       </c>
       <c r="T8">
-        <v>0.1397103591700219</v>
+        <v>0.146369594334894</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H9">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I9">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J9">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>2.04733</v>
       </c>
       <c r="O9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q9">
-        <v>1.545520545236667</v>
+        <v>1.752514707481111</v>
       </c>
       <c r="R9">
-        <v>13.90968490713</v>
+        <v>15.77263236733</v>
       </c>
       <c r="S9">
-        <v>0.01487837919188993</v>
+        <v>0.01652382909602115</v>
       </c>
       <c r="T9">
-        <v>0.01487837919188993</v>
+        <v>0.01652382909602115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H10">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N10">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q10">
-        <v>0.8495686420146668</v>
+        <v>1.746021946638333</v>
       </c>
       <c r="R10">
-        <v>7.646117778132001</v>
+        <v>15.714197519745</v>
       </c>
       <c r="S10">
-        <v>0.008178606518296135</v>
+        <v>0.01646261119578361</v>
       </c>
       <c r="T10">
-        <v>0.008178606518296135</v>
+        <v>0.01646261119578361</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H11">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I11">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J11">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N11">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O11">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P11">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q11">
-        <v>2.4599677365</v>
+        <v>4.581640081349334</v>
       </c>
       <c r="R11">
-        <v>22.1397096285</v>
+        <v>41.234760732144</v>
       </c>
       <c r="S11">
-        <v>0.0236815569332063</v>
+        <v>0.04319863186341492</v>
       </c>
       <c r="T11">
-        <v>0.0236815569332063</v>
+        <v>0.04319863186341493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H12">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I12">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J12">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>2.04733</v>
       </c>
       <c r="O12">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P12">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q12">
-        <v>0.2619729345833334</v>
+        <v>0.5172265321066667</v>
       </c>
       <c r="R12">
-        <v>2.35775641125</v>
+        <v>4.65503878896</v>
       </c>
       <c r="S12">
-        <v>0.002521954606657232</v>
+        <v>0.004876742422745328</v>
       </c>
       <c r="T12">
-        <v>0.002521954606657232</v>
+        <v>0.004876742422745328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H13">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I13">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J13">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N13">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O13">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P13">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q13">
-        <v>0.1440058438333334</v>
+        <v>0.5153102981599998</v>
       </c>
       <c r="R13">
-        <v>1.2960525945</v>
+        <v>4.637792683439999</v>
       </c>
       <c r="S13">
-        <v>0.001386311917369124</v>
+        <v>0.004858674943991769</v>
       </c>
       <c r="T13">
-        <v>0.001386311917369124</v>
+        <v>0.00485867494399177</v>
       </c>
     </row>
   </sheetData>
